--- a/area_cultivada_cafe.xlsx
+++ b/area_cultivada_cafe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBB4578C-EE95-4DEC-A063-178DB0F10F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE83DAA-4132-43ED-9B6B-F9D0965AD209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A4470D69-B841-4AFF-97E4-B1ED4BFAD8F0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>2010*</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>Departamento</t>
   </si>
 </sst>
 </file>
@@ -716,13 +719,18 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B1" s="1">
         <v>2002</v>
       </c>
